--- a/va_facility_data_2025-02-20/St. Joseph VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20Joseph%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/St. Joseph VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20Joseph%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd5402b3a2ace4d2cafd3ed259e88f6cb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb41e7087efd547ae83230bbe5efbc067"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R369b8a87b6db48cb8d7502e49e4425de"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R93d01b3dbd944ee58b5bb1e88b6d076b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8d40d5d09f7c43b880b95b03c0481bce"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb9987209dfe6481682bf8f0fe4e7a23d"/>
   </x:sheets>
 </x:workbook>
 </file>
